--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Michael A Leask</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1223,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1582,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1629,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -1576,7 +1636,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1720,7 +1780,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -1728,7 +1787,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1988,7 +2047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2203,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2196,7 +2255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2236,7 +2295,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -2244,7 +2302,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2296,7 +2354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2348,7 +2406,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2388,7 +2446,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2396,7 +2453,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2436,7 +2493,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -2444,7 +2500,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2496,7 +2552,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2600,7 +2656,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2652,7 +2708,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2704,7 +2760,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2756,7 +2812,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2808,7 +2864,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2860,7 +2916,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2912,7 +2968,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2964,7 +3020,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3016,7 +3072,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3068,7 +3124,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3120,7 +3176,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3172,7 +3228,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3224,7 +3280,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3276,7 +3332,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3384,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3380,7 +3436,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3420,7 +3476,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -3428,7 +3483,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3468,7 +3523,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -3476,7 +3530,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3528,7 +3582,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3580,7 +3634,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3632,7 +3686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3671,7 +3725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +3747,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3730,7 +3784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3767,7 +3821,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3804,7 +3858,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3841,7 +3895,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3878,7 +3932,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3915,7 +3969,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3952,7 +4006,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3989,7 +4043,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4026,7 +4080,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4063,7 +4117,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4100,7 +4154,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4137,7 +4191,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4174,7 +4228,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4211,7 +4265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4248,7 +4302,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4285,7 +4339,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4322,7 +4376,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4359,7 +4413,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4396,7 +4450,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4433,7 +4487,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4470,7 +4524,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4507,7 +4561,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4544,7 +4598,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4581,7 +4635,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4618,7 +4672,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4655,7 +4709,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4692,7 +4746,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4729,7 +4783,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4766,7 +4820,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4803,7 +4857,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4840,7 +4894,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4877,7 +4931,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4914,7 +4968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4951,7 +5005,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4988,7 +5042,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5025,7 +5079,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5062,7 +5116,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5099,7 +5153,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5136,7 +5190,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5173,7 +5227,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5210,7 +5264,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5247,7 +5301,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5284,7 +5338,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5321,7 +5375,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5358,7 +5412,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5395,7 +5449,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5432,7 +5486,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5469,7 +5523,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5506,7 +5560,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5543,7 +5597,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5580,7 +5634,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5617,7 +5671,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5654,7 +5708,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5691,7 +5745,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5728,7 +5782,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5765,7 +5819,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5791,6 +5845,587 @@
       <c r="G57" t="inlineStr">
         <is>
           <t>1/41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.66%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.78%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.89%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.45%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.05%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.12%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6098,7 +6099,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6171,15 +6171,423 @@
           <t>4631</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.45%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.05%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.12%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6187,27 +6595,14 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6219,13 +6614,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6233,27 +6621,14 @@
           <t>4677</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>7</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.45%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6263,27 +6638,14 @@
           <t>4681</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6293,29 +6655,12 @@
           <t>4680</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6323,17 +6668,12 @@
           <t>4684</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6341,15 +6681,14 @@
           <t>4702</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6359,27 +6698,14 @@
           <t>4703</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.05%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6389,27 +6715,14 @@
           <t>4705</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13.12%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6421,13 +6734,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4222.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -818,6 +816,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -1073,6 +1072,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1224,6 +1224,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1583,6 +1584,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>24/11/2017</t>
@@ -1630,6 +1632,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>25/11/2017</t>
@@ -1781,6 +1784,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>04/03/2018</t>
@@ -2296,6 +2300,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>20/05/2021</t>
@@ -2447,6 +2452,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -2494,6 +2500,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>09/04/2022</t>
@@ -3477,6 +3484,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -3524,6 +3532,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -5852,890 +5861,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.67%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.66%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.98%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>27.78%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14.89%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.45%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.05%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13.12%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>